--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t xml:space="preserve">22 May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Workout Type</t>
@@ -322,13 +349,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -478,6 +505,145 @@
       <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0.0133217592592593</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0.0293287037037037</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0.0249189814814815</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0278240740740741</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.0248842592592593</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.0269560185185185</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.0256944444444444</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0.011875</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0.0263541666666667</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -497,11 +663,11 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -512,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -540,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -554,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -568,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -582,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -593,10 +759,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -607,10 +773,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -621,10 +787,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -635,10 +801,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -652,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -666,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -680,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -694,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -725,7 +891,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
   </cols>
@@ -735,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">6 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Workout Type</t>
@@ -349,13 +352,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -644,6 +647,20 @@
         <v>0.0263541666666667</v>
       </c>
       <c r="E18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.0137037037037037</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -667,7 +684,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -678,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -706,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -720,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -734,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -748,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -759,10 +776,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -773,10 +790,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -787,10 +804,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -801,10 +818,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -818,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -832,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -846,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -860,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -891,7 +908,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
   </cols>
@@ -901,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -99,6 +99,12 @@
     <t xml:space="preserve">7 June 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">10 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 June 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -130,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Raise Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle Crunch</t>
   </si>
   <si>
     <t xml:space="preserve">Details</t>
@@ -352,13 +361,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
@@ -660,6 +669,34 @@
       </c>
       <c r="D19" s="1" t="n">
         <v>0.0137037037037037</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.0251736111111111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.0255208333333333</v>
       </c>
     </row>
   </sheetData>
@@ -678,13 +715,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -695,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +746,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -723,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -737,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -751,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -765,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -776,10 +813,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -790,10 +827,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -804,10 +841,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -818,10 +855,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -835,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -849,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -863,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -877,13 +914,69 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1001,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
   </cols>
@@ -918,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -105,6 +105,18 @@
     <t xml:space="preserve">13 June 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">15 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 June 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -141,6 +153,9 @@
     <t xml:space="preserve">Bicycle Crunch</t>
   </si>
   <si>
+    <t xml:space="preserve">14 June 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Details</t>
   </si>
   <si>
@@ -148,6 +163,12 @@
   </si>
   <si>
     <t xml:space="preserve">Bus Stand &gt; Car Workshop &gt; Main Road &gt; Park &gt; Schools &gt; Bus stand &gt; Another round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand &gt; Mosque &gt; Park &gt; Schools &gt; Another round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Stand &gt; Volleyball court &gt; Schools &gt; Park &gt; Main Road &gt; Car Workshop &gt; Shops &gt; Mosque &gt; Schools &gt; Volleyball court &gt; Bus Stand</t>
   </si>
 </sst>
 </file>
@@ -361,14 +382,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.36"/>
@@ -658,46 +680,109 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="C19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>0.0137037037037037</v>
       </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="6" t="n">
         <v>0.0251736111111111</v>
       </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>0.0255208333333333</v>
-      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.0255555555555556</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.0127083333333333</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.012349537037037</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.0254398148148148</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.0280208333333333</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -715,13 +800,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -732,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -760,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -774,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -788,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -802,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -813,10 +898,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -827,10 +912,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -841,10 +926,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -855,10 +940,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -872,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -886,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -900,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -914,69 +999,125 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>10</v>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -995,15 +1136,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1168,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -117,6 +117,12 @@
     <t xml:space="preserve">20 June 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">21 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 June 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">14 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Details</t>
@@ -382,13 +391,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
@@ -783,6 +792,36 @@
         <v>0.0280208333333333</v>
       </c>
       <c r="E25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.0122916666666667</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.0128240740740741</v>
+      </c>
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -800,13 +839,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -817,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -845,7 +884,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -859,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -873,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -887,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -898,10 +937,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -912,10 +951,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -926,10 +965,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -940,10 +979,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -957,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -971,7 +1010,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -985,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -999,7 +1038,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1013,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1027,7 +1066,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1041,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1055,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1066,10 +1105,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -1080,10 +1119,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -1094,10 +1133,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -1108,15 +1147,71 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1142,9 +1237,9 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">Route</t>
   </si>
   <si>
+    <t xml:space="preserve">Session</t>
+  </si>
+  <si>
     <t xml:space="preserve">Distance (KM) </t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t xml:space="preserve">12 May 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">13 May 2021</t>
   </si>
   <si>
@@ -123,6 +129,12 @@
     <t xml:space="preserve">23 June 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">25 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 June 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">22 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Details</t>
@@ -391,19 +406,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,412 +432,529 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="n">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="n">
         <v>0.0138773148148148</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="n">
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="n">
         <v>0.0130787037037037</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="n">
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="n">
         <v>0.0162037037037037</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="E5" s="6" t="n">
         <v>0.0260416666666667</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>0.0266550925925926</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="n">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6" t="n">
         <v>0.0115740740740741</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="n">
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>0.0163194444444444</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="n">
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>0.015162037037037</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="n">
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>0.0133217592592593</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>0.0293287037037037</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="E12" s="6" t="n">
         <v>0.0249189814814815</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="E13" s="6" t="n">
         <v>0.0278240740740741</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>0.0248842592592593</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>0.0269560185185185</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="6" t="n">
         <v>0.0256944444444444</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="n">
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6" t="n">
         <v>0.011875</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="n">
         <v>5.5</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>0.0263541666666667</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="n">
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="n">
         <v>0.0137037037037037</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="E20" s="6" t="n">
         <v>0.0251736111111111</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="E21" s="6" t="n">
         <v>0.0255555555555556</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="n">
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>0.0127083333333333</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="n">
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>0.012349537037037</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="E24" s="6" t="n">
         <v>0.0254398148148148</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="5" t="n">
         <v>5.7</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="E25" s="6" t="n">
         <v>0.0280208333333333</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6" t="n">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>0.0122916666666667</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6" t="n">
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <v>0.0128240740740741</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0.0259375</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0.0253819444444444</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -839,13 +972,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -856,21 +989,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -878,13 +1014,16 @@
       <c r="D2" s="5" t="n">
         <v>20</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -892,13 +1031,16 @@
       <c r="D3" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -906,13 +1048,16 @@
       <c r="D4" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -920,13 +1065,16 @@
       <c r="D5" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -934,125 +1082,152 @@
       <c r="D6" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1060,13 +1235,16 @@
       <c r="D15" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1074,13 +1252,16 @@
       <c r="D16" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1088,13 +1269,16 @@
       <c r="D17" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1102,117 +1286,212 @@
       <c r="D18" s="5" t="n">
         <v>10</v>
       </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>15</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>15</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>15</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>15</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1516,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1247,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">26 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 June 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Workout Type</t>
@@ -406,17 +409,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.53"/>
@@ -955,6 +958,24 @@
         <v>0.0253819444444444</v>
       </c>
       <c r="F29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0.025625</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -975,10 +996,10 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="A30:F30 G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -989,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1006,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -1023,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -1040,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1057,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -1074,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1088,10 +1109,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -1105,10 +1126,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -1122,10 +1143,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -1139,10 +1160,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -1159,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -1176,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -1193,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -1210,7 +1231,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1227,7 +1248,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1244,7 +1265,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1261,7 +1282,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1278,7 +1299,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1292,10 +1313,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -1309,10 +1330,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -1326,10 +1347,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -1343,10 +1364,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
@@ -1360,10 +1381,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
@@ -1377,10 +1398,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
@@ -1394,10 +1415,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
@@ -1411,10 +1432,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
@@ -1428,10 +1449,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>3</v>
@@ -1445,10 +1466,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3</v>
@@ -1462,10 +1483,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>3</v>
@@ -1479,10 +1500,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>3</v>
@@ -1513,10 +1534,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="A30:F30 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1526,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t xml:space="preserve">29 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 July 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Workout Type</t>
@@ -409,17 +421,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="A30:F30"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.53"/>
@@ -976,6 +988,78 @@
         <v>0.025625</v>
       </c>
       <c r="F30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.0134027777777778</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0.0274652777777778</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.028287037037037</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.0288657407407407</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -996,10 +1080,10 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="A30:F30 G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -1010,13 +1094,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1027,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -1044,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -1061,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1078,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -1095,7 +1179,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1109,10 +1193,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -1126,10 +1210,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -1143,10 +1227,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -1160,10 +1244,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -1180,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -1197,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -1214,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -1231,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1248,7 +1332,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1265,7 +1349,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1282,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1299,7 +1383,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1313,10 +1397,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -1330,10 +1414,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -1347,10 +1431,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -1364,10 +1448,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
@@ -1381,10 +1465,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
@@ -1398,10 +1482,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
@@ -1415,10 +1499,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
@@ -1432,10 +1516,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
@@ -1449,10 +1533,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>3</v>
@@ -1466,10 +1550,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3</v>
@@ -1483,10 +1567,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>3</v>
@@ -1500,10 +1584,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>3</v>
@@ -1534,10 +1618,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="A30:F30 B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1547,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,12 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Workout" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Running Routes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Cycling" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Walking" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Running Routes" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Cycling Routes" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -150,6 +153,12 @@
     <t xml:space="preserve">22 July 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">23 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 July 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -193,6 +202,18 @@
   </si>
   <si>
     <t xml:space="preserve">28 June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopwatch reset. Estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slow jog</t>
   </si>
   <si>
     <t xml:space="preserve">Details</t>
@@ -421,13 +442,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
@@ -1060,6 +1081,42 @@
         <v>0.0288657407407407</v>
       </c>
       <c r="F34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0.014537037037037</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0.0238657407407407</v>
+      </c>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1079,11 +1136,11 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -1094,13 +1151,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1111,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -1128,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -1145,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1162,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -1179,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1193,10 +1250,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -1210,10 +1267,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -1227,10 +1284,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -1244,10 +1301,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -1264,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -1281,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -1298,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -1315,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1332,7 +1389,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1349,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1366,7 +1423,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1383,7 +1440,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1397,10 +1454,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -1414,10 +1471,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -1431,10 +1488,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -1448,10 +1505,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
@@ -1465,10 +1522,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
@@ -1482,10 +1539,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
@@ -1499,10 +1556,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
@@ -1516,10 +1573,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
@@ -1533,10 +1590,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>3</v>
@@ -1550,10 +1607,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3</v>
@@ -1567,10 +1624,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>3</v>
@@ -1584,10 +1641,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>3</v>
@@ -1615,13 +1672,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.0223148148148148</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1631,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,7 +1840,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1663,8 +1848,59 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t xml:space="preserve">27 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 August 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 August 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Workout Type</t>
@@ -442,13 +457,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
@@ -1117,6 +1132,96 @@
         <v>0.0238657407407407</v>
       </c>
       <c r="F36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.0128125</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0.0248148148148148</v>
+      </c>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.0141550925925926</v>
+      </c>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0.0129976851851852</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0.0257060185185185</v>
+      </c>
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1140,7 +1245,7 @@
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
@@ -1151,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1168,7 +1273,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -1185,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -1202,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1219,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -1236,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1250,10 +1355,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -1267,10 +1372,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -1284,10 +1389,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -1301,10 +1406,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -1321,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -1338,7 +1443,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -1355,7 +1460,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -1372,7 +1477,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1389,7 +1494,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1406,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -1423,7 +1528,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -1440,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -1454,10 +1559,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -1471,10 +1576,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -1488,10 +1593,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -1505,10 +1610,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
@@ -1522,10 +1627,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
@@ -1539,10 +1644,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
@@ -1556,10 +1661,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
@@ -1573,10 +1678,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
@@ -1590,10 +1695,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>3</v>
@@ -1607,10 +1712,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3</v>
@@ -1624,10 +1729,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>3</v>
@@ -1641,10 +1746,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>3</v>
@@ -1678,7 +1783,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1702,7 +1807,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -1717,7 +1822,7 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1738,11 +1843,11 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1766,7 +1871,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -1781,7 +1886,7 @@
         <v>0.0223148148148148</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1911,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1816,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1978,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
@@ -1883,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\exercise-logs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D8EF5-42C6-4924-ACF4-B209F27C02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Workout" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cycling" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Walking" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Running Routes" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Cycling Routes" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Running" sheetId="1" r:id="rId1"/>
+    <sheet name="Workout" sheetId="2" r:id="rId2"/>
+    <sheet name="Cycling" sheetId="3" r:id="rId3"/>
+    <sheet name="Walking" sheetId="4" r:id="rId4"/>
+    <sheet name="Running Routes" sheetId="5" r:id="rId5"/>
+    <sheet name="Cycling Routes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,236 +30,235 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="74">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Session</t>
   </si>
   <si>
     <t xml:space="preserve">Distance (KM) </t>
   </si>
   <si>
-    <t xml:space="preserve">Time (MM:ss)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last run before I injured my hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running with injured hamstring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 August 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 August 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workout Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Push Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full Squats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Crunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Half Squats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legs Raise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicycle Crunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stopwatch reset. Estimated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slow jog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand &gt; Volleyball court &gt; Schools &gt; Park &gt; Main Road &gt; Car Workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand &gt; Car Workshop &gt; Main Road &gt; Park &gt; Schools &gt; Bus stand &gt; Another round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand &gt; Mosque &gt; Park &gt; Schools &gt; Another round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Stand &gt; Volleyball court &gt; Schools &gt; Park &gt; Main Road &gt; Car Workshop &gt; Shops &gt; Mosque &gt; Schools &gt; Volleyball court &gt; Bus Stand</t>
+    <t>Time (MM:ss)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>12 May 2021</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>13 May 2021</t>
+  </si>
+  <si>
+    <t>14 May 2021</t>
+  </si>
+  <si>
+    <t>15 May 2021</t>
+  </si>
+  <si>
+    <t>16 May 2021</t>
+  </si>
+  <si>
+    <t>18 May 2021</t>
+  </si>
+  <si>
+    <t>Last run before I injured my hamstring</t>
+  </si>
+  <si>
+    <t>21 May 2021</t>
+  </si>
+  <si>
+    <t>Running with injured hamstring</t>
+  </si>
+  <si>
+    <t>22 May 2021</t>
+  </si>
+  <si>
+    <t>24 May 2021</t>
+  </si>
+  <si>
+    <t>25 May 2021</t>
+  </si>
+  <si>
+    <t>27 May 2021</t>
+  </si>
+  <si>
+    <t>30 May 2021</t>
+  </si>
+  <si>
+    <t>1 June 2021</t>
+  </si>
+  <si>
+    <t>2 June 2021</t>
+  </si>
+  <si>
+    <t>3 June 2021</t>
+  </si>
+  <si>
+    <t>4 June 2021</t>
+  </si>
+  <si>
+    <t>6 June 2021</t>
+  </si>
+  <si>
+    <t>7 June 2021</t>
+  </si>
+  <si>
+    <t>10 June 2021</t>
+  </si>
+  <si>
+    <t>13 June 2021</t>
+  </si>
+  <si>
+    <t>15 June 2021</t>
+  </si>
+  <si>
+    <t>17 June 2021</t>
+  </si>
+  <si>
+    <t>19 June 2021</t>
+  </si>
+  <si>
+    <t>20 June 2021</t>
+  </si>
+  <si>
+    <t>21 June 2021</t>
+  </si>
+  <si>
+    <t>23 June 2021</t>
+  </si>
+  <si>
+    <t>25 June 2021</t>
+  </si>
+  <si>
+    <t>26 June 2021</t>
+  </si>
+  <si>
+    <t>29 June 2021</t>
+  </si>
+  <si>
+    <t>18 July 2021</t>
+  </si>
+  <si>
+    <t>20 July 2021</t>
+  </si>
+  <si>
+    <t>21 July 2021</t>
+  </si>
+  <si>
+    <t>22 July 2021</t>
+  </si>
+  <si>
+    <t>23 July 2021</t>
+  </si>
+  <si>
+    <t>27 July 2021</t>
+  </si>
+  <si>
+    <t>28 July 2021</t>
+  </si>
+  <si>
+    <t>30 July 2021</t>
+  </si>
+  <si>
+    <t>31 July 2021</t>
+  </si>
+  <si>
+    <t>2 August 2021</t>
+  </si>
+  <si>
+    <t>4 August 2021</t>
+  </si>
+  <si>
+    <t>Workout Type</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>Reps</t>
+  </si>
+  <si>
+    <t>Push Up</t>
+  </si>
+  <si>
+    <t>Full Squats</t>
+  </si>
+  <si>
+    <t>Cycle Crunch</t>
+  </si>
+  <si>
+    <t>Dip</t>
+  </si>
+  <si>
+    <t>19 May 2021</t>
+  </si>
+  <si>
+    <t>Half Squats</t>
+  </si>
+  <si>
+    <t>Legs Raise</t>
+  </si>
+  <si>
+    <t>Raise Bridge</t>
+  </si>
+  <si>
+    <t>Bicycle Crunch</t>
+  </si>
+  <si>
+    <t>14 June 2021</t>
+  </si>
+  <si>
+    <t>22 June 2021</t>
+  </si>
+  <si>
+    <t>28 June 2021</t>
+  </si>
+  <si>
+    <t>25 July 2021</t>
+  </si>
+  <si>
+    <t>Stopwatch reset. Estimated</t>
+  </si>
+  <si>
+    <t>24 July 2021</t>
+  </si>
+  <si>
+    <t>Slow jog</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Bus Stand &gt; Volleyball court &gt; Schools &gt; Park &gt; Main Road &gt; Car Workshop</t>
+  </si>
+  <si>
+    <t>Bus Stand &gt; Car Workshop &gt; Main Road &gt; Park &gt; Schools &gt; Bus stand &gt; Another round</t>
+  </si>
+  <si>
+    <t>Bus Stand &gt; Mosque &gt; Park &gt; Schools &gt; Another round</t>
+  </si>
+  <si>
+    <t>Bus Stand &gt; Volleyball court &gt; Schools &gt; Park &gt; Main Road &gt; Car Workshop &gt; Shops &gt; Mosque &gt; Schools &gt; Volleyball court &gt; Bus Stand</t>
+  </si>
+  <si>
+    <t>Beginner HIIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="mm:ss"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -262,22 +266,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -298,97 +287,103 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="45" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -447,33 +442,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.53"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,741 +796,757 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>0.0138773148148148</v>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.3877314814814801E-2</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>0.0130787037037037</v>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.30787037037037E-2</v>
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0.0162037037037037</v>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.6203703703703699E-2</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>5.5</v>
       </c>
-      <c r="E5" s="6" t="n">
-        <v>0.0260416666666667</v>
+      <c r="E5" s="6">
+        <v>2.6041666666666699E-2</v>
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>5.5</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>0.0266550925925926</v>
+      <c r="E6" s="6">
+        <v>2.6655092592592598E-2</v>
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0.0115740740740741</v>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.1574074074074099E-2</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>0.0163194444444444</v>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.63194444444444E-2</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>0.015162037037037</v>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.5162037037037E-2</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>0.0133217592592593</v>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.3321759259259301E-2</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>5.5</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>0.0293287037037037</v>
+      <c r="E11" s="6">
+        <v>2.9328703703703701E-2</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>5.5</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>0.0249189814814815</v>
+      <c r="E12" s="6">
+        <v>2.49189814814815E-2</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>5.5</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>0.0278240740740741</v>
+      <c r="E13" s="6">
+        <v>2.7824074074074098E-2</v>
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>5.5</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>0.0248842592592593</v>
+      <c r="E14" s="6">
+        <v>2.48842592592593E-2</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>5.5</v>
       </c>
-      <c r="E15" s="6" t="n">
-        <v>0.0269560185185185</v>
+      <c r="E15" s="6">
+        <v>2.6956018518518501E-2</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>5.5</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>0.0256944444444444</v>
+      <c r="E16" s="6">
+        <v>2.5694444444444402E-2</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0.011875</v>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1.1875E-2</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="7">
         <v>5.5</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>0.0263541666666667</v>
+      <c r="E18" s="6">
+        <v>2.6354166666666699E-2</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>0.0137037037037037</v>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1.3703703703703701E-2</v>
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>5.5</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <v>0.0251736111111111</v>
+      <c r="E20" s="6">
+        <v>2.5173611111111101E-2</v>
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="5">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>5.5</v>
       </c>
-      <c r="E21" s="6" t="n">
-        <v>0.0255555555555556</v>
+      <c r="E21" s="6">
+        <v>2.5555555555555599E-2</v>
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>0.0127083333333333</v>
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.2708333333333301E-2</v>
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>0.012349537037037</v>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1.2349537037036999E-2</v>
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>5.5</v>
       </c>
-      <c r="E24" s="6" t="n">
-        <v>0.0254398148148148</v>
+      <c r="E24" s="6">
+        <v>2.5439814814814801E-2</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="5">
         <v>4</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>5.7</v>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>0.0280208333333333</v>
+      <c r="E25" s="6">
+        <v>2.80208333333333E-2</v>
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6" t="n">
-        <v>0.0122916666666667</v>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1.2291666666666701E-2</v>
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="5">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>0.0128240740740741</v>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1.2824074074074101E-2</v>
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="5">
         <v>5.5</v>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>0.0259375</v>
+      <c r="E28" s="6">
+        <v>2.5937499999999999E-2</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="5">
         <v>5.5</v>
       </c>
-      <c r="E29" s="6" t="n">
-        <v>0.0253819444444444</v>
+      <c r="E29" s="6">
+        <v>2.5381944444444401E-2</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="5">
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="5">
         <v>5.5</v>
       </c>
-      <c r="E30" s="6" t="n">
-        <v>0.025625</v>
+      <c r="E30" s="6">
+        <v>2.5624999999999998E-2</v>
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>0.0134027777777778</v>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.34027777777778E-2</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>5.5</v>
       </c>
-      <c r="E32" s="6" t="n">
-        <v>0.0274652777777778</v>
+      <c r="E32" s="6">
+        <v>2.74652777777778E-2</v>
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>5.5</v>
       </c>
-      <c r="E33" s="6" t="n">
-        <v>0.028287037037037</v>
+      <c r="E33" s="6">
+        <v>2.8287037037036999E-2</v>
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="5">
         <v>4</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="5">
         <v>5.7</v>
       </c>
-      <c r="E34" s="6" t="n">
-        <v>0.0288657407407407</v>
+      <c r="E34" s="6">
+        <v>2.8865740740740699E-2</v>
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="5">
         <v>1</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>0.014537037037037</v>
+      <c r="D35" s="5">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.4537037037036999E-2</v>
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="5">
         <v>2</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="5">
         <v>5.5</v>
       </c>
-      <c r="E36" s="6" t="n">
-        <v>0.0238657407407407</v>
+      <c r="E36" s="6">
+        <v>2.3865740740740701E-2</v>
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="5">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>0.0128125</v>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1.2812499999999999E-2</v>
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="5">
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="5">
         <v>5.5</v>
       </c>
-      <c r="E38" s="6" t="n">
-        <v>0.0248148148148148</v>
+      <c r="E38" s="6">
+        <v>2.48148148148148E-2</v>
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>0.0141550925925926</v>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1.4155092592592599E-2</v>
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="5">
         <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6" t="n">
-        <v>0.0129976851851852</v>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1.2997685185185201E-2</v>
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="5">
         <v>2</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="5">
         <v>5.5</v>
       </c>
-      <c r="E41" s="6" t="n">
-        <v>0.0257060185185185</v>
+      <c r="E41" s="6">
+        <v>2.57060185185185E-2</v>
       </c>
       <c r="F41" s="5"/>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>44413</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2.480324074074074E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1235,23 +1554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+    <sheetView topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.68"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1268,504 +1584,529 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="5">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="n">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
         <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
         <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="n">
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
         <v>15</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="n">
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
         <v>15</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="n">
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
         <v>15</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
         <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="n">
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
         <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="n">
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="n">
+      <c r="C17" s="5">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
         <v>10</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="n">
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
         <v>10</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="n">
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="n">
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="n">
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="n">
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
         <v>15</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7" t="n">
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
         <v>15</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7" t="n">
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
         <v>15</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="n">
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
         <v>15</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7" t="n">
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
         <v>15</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="n">
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
         <v>15</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="n">
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5">
         <v>15</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5" t="n">
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="12">
         <v>15</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>44417</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>44418</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1773,19 +2114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1805,31 +2141,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0.0208333333333333</v>
+      <c r="E2" s="6">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1837,19 +2172,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1869,31 +2201,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0.0223148148148148</v>
+      <c r="E2" s="6">
+        <v>2.2314814814814801E-2</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1901,22 +2232,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1924,32 +2252,32 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1957,10 +2285,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1968,22 +2295,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1991,27 +2315,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -177,6 +177,9 @@
     <t xml:space="preserve">Easy run</t>
   </si>
   <si>
+    <t xml:space="preserve">AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zwift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM</t>
   </si>
   <si>
     <t xml:space="preserve">24 July 2021</t>
@@ -268,13 +268,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm:ss"/>
     <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="[hh]:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="170" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -382,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,6 +428,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -447,11 +452,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -536,20 +541,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.59"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,6 +1706,34 @@
       </c>
       <c r="E69" s="1" t="n">
         <v>0.0130787037037037</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11" t="n">
+        <v>44548</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>0.0132060185185185</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11" t="n">
+        <v>44551</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0.0128587962962963</v>
       </c>
     </row>
   </sheetData>
@@ -1719,30 +1752,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
+      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1753,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -1770,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>3</v>
@@ -1787,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>3</v>
@@ -1804,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -1821,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>3</v>
@@ -1835,10 +1868,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>3</v>
@@ -1852,10 +1885,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>3</v>
@@ -1869,10 +1902,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>3</v>
@@ -1886,10 +1919,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>3</v>
@@ -1906,7 +1939,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>3</v>
@@ -1923,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>3</v>
@@ -1940,7 +1973,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>3</v>
@@ -1957,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>3</v>
@@ -1974,7 +2007,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>3</v>
@@ -1991,7 +2024,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>3</v>
@@ -2008,7 +2041,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="n">
         <v>3</v>
@@ -2025,7 +2058,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>3</v>
@@ -2039,10 +2072,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>3</v>
@@ -2056,10 +2089,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>3</v>
@@ -2073,10 +2106,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>3</v>
@@ -2090,10 +2123,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>3</v>
@@ -2107,10 +2140,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>3</v>
@@ -2124,10 +2157,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>3</v>
@@ -2141,10 +2174,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>3</v>
@@ -2158,10 +2191,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>3</v>
@@ -2175,10 +2208,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>3</v>
@@ -2192,10 +2225,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>3</v>
@@ -2209,61 +2242,61 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D30" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="C30" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="14" t="n">
         <v>44417</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14" t="s">
+      <c r="B31" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="14" t="n">
         <v>44418</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14" t="s">
+      <c r="B32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2272,7 +2305,7 @@
         <v>44466</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>7</v>
@@ -2283,7 +2316,7 @@
         <v>44468</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>7</v>
@@ -2294,7 +2327,7 @@
         <v>44470</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>7</v>
@@ -2305,7 +2338,7 @@
         <v>44472</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>7</v>
@@ -2316,7 +2349,7 @@
         <v>44473</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>7</v>
@@ -2327,7 +2360,7 @@
         <v>44499</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>3</v>
@@ -2344,7 +2377,7 @@
         <v>41213</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>3</v>
@@ -2361,7 +2394,7 @@
         <v>41213</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>3</v>
@@ -2378,7 +2411,7 @@
         <v>44504</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>7</v>
@@ -2389,7 +2422,7 @@
         <v>44506</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>3</v>
@@ -2406,7 +2439,7 @@
         <v>44507</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3</v>
@@ -2423,7 +2456,7 @@
         <v>44509</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>7</v>
@@ -2434,7 +2467,7 @@
         <v>44515</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3</v>
@@ -2451,7 +2484,7 @@
         <v>44536</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3</v>
@@ -2468,7 +2501,7 @@
         <v>44536</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3</v>
@@ -2485,7 +2518,7 @@
         <v>44538</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>3</v>
@@ -2502,7 +2535,7 @@
         <v>44538</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3</v>
@@ -2519,7 +2552,7 @@
         <v>44543</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3</v>
@@ -2536,7 +2569,7 @@
         <v>44543</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3</v>
@@ -2545,6 +2578,40 @@
         <v>15</v>
       </c>
       <c r="E51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="11" t="n">
+        <v>44548</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="11" t="n">
+        <v>44548</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2594,7 +2661,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>0.0208333333333333</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2692,7 @@
       <c r="D3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="17" t="n">
         <v>1.31944444444444</v>
       </c>
     </row>
@@ -2634,7 +2701,7 @@
         <v>44520</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -2642,7 +2709,7 @@
       <c r="D4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="17" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
         <v>44523</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>7</v>
@@ -2659,7 +2726,7 @@
       <c r="D5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="17" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2668,7 +2735,7 @@
         <v>44527</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -2676,7 +2743,7 @@
       <c r="D6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="17" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2685,12 +2752,12 @@
         <v>44528</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>26.9</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2707,7 +2774,7 @@
       <c r="D8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="17" t="n">
         <v>1.375</v>
       </c>
     </row>
@@ -2716,7 +2783,7 @@
         <v>44538</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -2724,7 +2791,7 @@
       <c r="D9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="17" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -2733,7 +2800,7 @@
         <v>44545</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>7</v>
@@ -2741,8 +2808,42 @@
       <c r="D10" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="18" t="n">
         <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>44548</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2868,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2831,16 +2932,16 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2898,16 +2999,16 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>74</v>
       </c>
     </row>

--- a/exercise-logs.xlsx
+++ b/exercise-logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Running" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="83">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -180,6 +180,12 @@
     <t xml:space="preserve">AM</t>
   </si>
   <si>
+    <t xml:space="preserve">Fasting run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Raya Run</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workout Type</t>
   </si>
   <si>
@@ -232,6 +238,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sit Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dip Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squat</t>
   </si>
   <si>
     <t xml:space="preserve">25 July 2021</t>
@@ -271,9 +283,9 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm:ss"/>
-    <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="d\ mmm\ yy"/>
     <numFmt numFmtId="169" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="170" formatCode="hh:mm:ss"/>
   </numFmts>
@@ -404,6 +416,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,10 +444,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,7 +452,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,19 +553,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.59"/>
   </cols>
   <sheetData>
@@ -577,755 +589,755 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="n">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>0.0138773148148148</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="n">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="n">
         <v>0.0130787037037037</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="n">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>0.0162037037037037</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>0.0260416666666667</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>0.0266550925925926</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7" t="n">
         <v>0.0115740740740741</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>0.0163194444444444</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="n">
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="n">
         <v>0.015162037037037</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>0.0133217592592593</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="n">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="7" t="n">
         <v>0.0293287037037037</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="n">
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="7" t="n">
         <v>0.0249189814814815</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="n">
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="7" t="n">
         <v>0.0278240740740741</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7" t="n">
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="7" t="n">
         <v>0.0248842592592593</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="n">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>0.0269560185185185</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>0.0256944444444444</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6" t="n">
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="n">
         <v>0.011875</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="7" t="n">
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8" t="n">
         <v>5.5</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>0.0263541666666667</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6" t="n">
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="n">
         <v>0.0137037037037037</v>
       </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="n">
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>0.0251736111111111</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="n">
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>0.0255555555555556</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="n">
+      <c r="B22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7" t="n">
         <v>0.0127083333333333</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="n">
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7" t="n">
         <v>0.012349537037037</v>
       </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="7" t="n">
         <v>0.0254398148148148</v>
       </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="n">
+      <c r="C25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>5.7</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="7" t="n">
         <v>0.0280208333333333</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6" t="n">
+      <c r="B26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="n">
         <v>0.0122916666666667</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6" t="n">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7" t="n">
         <v>0.0128240740740741</v>
       </c>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>0.0259375</v>
       </c>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="n">
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>0.0253819444444444</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="n">
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>0.025625</v>
       </c>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6" t="n">
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7" t="n">
         <v>0.0134027777777778</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="n">
+      <c r="C32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>0.0274652777777778</v>
       </c>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="n">
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="7" t="n">
         <v>0.028287037037037</v>
       </c>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="n">
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="n">
         <v>5.7</v>
       </c>
-      <c r="E34" s="6" t="n">
+      <c r="E34" s="7" t="n">
         <v>0.0288657407407407</v>
       </c>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6" t="n">
+      <c r="C35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="n">
         <v>0.014537037037037</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="n">
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E36" s="6" t="n">
+      <c r="E36" s="7" t="n">
         <v>0.0238657407407407</v>
       </c>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="n">
+      <c r="C37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7" t="n">
         <v>0.0128125</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="5" t="n">
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <v>0.0248148148148148</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="n">
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="n">
         <v>0.0141550925925926</v>
       </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" s="6" t="n">
+      <c r="B40" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7" t="n">
         <v>0.0129976851851852</v>
       </c>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="n">
+      <c r="C41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="n">
         <v>5.5</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="7" t="n">
         <v>0.0257060185185185</v>
       </c>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
         <v>44413</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="n">
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="10" t="n">
         <v>5.5</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>0.0248032407407407</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
         <v>44450</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -1338,8 +1350,8 @@
         <v>0.0173611111111111</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
         <v>44453</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -1352,8 +1364,8 @@
         <v>0.0173611111111111</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
         <v>44455</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -1366,8 +1378,8 @@
         <v>0.0173611111111111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
         <v>44458</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -1380,8 +1392,8 @@
         <v>0.0243055555555556</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
         <v>44475</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -1394,8 +1406,8 @@
         <v>0.015775462962963</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
         <v>44476</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -1408,8 +1420,8 @@
         <v>0.0256944444444444</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
         <v>44477</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1422,8 +1434,8 @@
         <v>0.0134143518518519</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
         <v>44479</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -1436,8 +1448,8 @@
         <v>0.0287268518518519</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
         <v>44485</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -1450,8 +1462,8 @@
         <v>0.0145833333333333</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="n">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
         <v>44486</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -1464,8 +1476,8 @@
         <v>0.0144097222222222</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="n">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
         <v>44490</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -1478,8 +1490,8 @@
         <v>0.0131828703703704</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="n">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
         <v>44493</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -1492,8 +1504,8 @@
         <v>0.0145833333333333</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="n">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
         <v>44497</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1506,8 +1518,8 @@
         <v>0.0137731481481481</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="n">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
         <v>44499</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -1520,8 +1532,8 @@
         <v>0.0142361111111111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="n">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
         <v>44500</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -1534,8 +1546,8 @@
         <v>0.0135416666666667</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="n">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
         <v>44506</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -1548,8 +1560,8 @@
         <v>0.0128240740740741</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="n">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
         <v>44507</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -1565,8 +1577,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="n">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
         <v>44508</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -1579,8 +1591,8 @@
         <v>0.0132060185185185</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="n">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
         <v>44511</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -1593,8 +1605,8 @@
         <v>0.0127546296296296</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="n">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
         <v>44514</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -1607,8 +1619,8 @@
         <v>0.0129513888888889</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="n">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
         <v>44515</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -1621,8 +1633,8 @@
         <v>0.0132291666666667</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="n">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
         <v>44522</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -1635,8 +1647,8 @@
         <v>0.0127777777777778</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="n">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
         <v>44526</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -1649,8 +1661,8 @@
         <v>0.0122453703703704</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="n">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
         <v>44529</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -1663,8 +1675,8 @@
         <v>0.0140046296296296</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="n">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
         <v>44536</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -1677,8 +1689,8 @@
         <v>0.0119212962962963</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="10" t="n">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
         <v>-620200</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -1694,8 +1706,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="10" t="n">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
         <v>44543</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -1708,8 +1720,8 @@
         <v>0.0130787037037037</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11" t="n">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
         <v>44548</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -1722,8 +1734,8 @@
         <v>0.0132060185185185</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11" t="n">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
         <v>44551</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -1734,6 +1746,732 @@
       </c>
       <c r="E71" s="1" t="n">
         <v>0.0128587962962963</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>44553</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.0116435185185185</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
+        <v>44556</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>0.0284490740740741</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
+        <v>44563</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>0.0126157407407407</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>44564</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0.0124537037037037</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>44568</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0.0141550925925926</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
+        <v>44570</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0.0253356481481481</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
+        <v>44573</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.0135185185185185</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
+        <v>44575</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.0139583333333333</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>44577</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>0.0136111111111111</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <v>44583</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>0.0134143518518519</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>44584</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>0.0130671296296296</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
+        <v>44591</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0.0131597222222222</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0.0131597222222222</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
+        <v>44595</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>0.025462962962963</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
+        <v>44598</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.0134722222222222</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
+        <v>44603</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.0121527777777778</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
+        <v>44605</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.0144328703703704</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="n">
+        <v>44608</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>0.0137615740740741</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="n">
+        <v>44610</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>0.0131365740740741</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="n">
+        <v>44611</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0.0132060185185185</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>44618</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0.0140972222222222</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
+        <v>44629</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0.0130208333333333</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0.0246759259259259</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="n">
+        <v>44669</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0.012974537037037</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
+        <v>44683</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>0.0140046296296296</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
+        <v>44686</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0.0141898148148148</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
+        <v>44687</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0.0138310185185185</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
+        <v>44695</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.0131944444444444</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>44695</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0.0137962962962963</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0.0130208333333333</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
+        <v>44704</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>0.0131712962962963</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0.0143055555555556</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>44710</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0.0250578703703704</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0.0302777777777778</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>44717</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0.0251736111111111</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
+        <v>44718</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>0.0153472222222222</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>44731</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0.015474537037037</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
+        <v>44738</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0.0257986111111111</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>44745</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>0.0154976851851852</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>44753</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>0.0263888888888889</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>44891</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>0.0143634259259259</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
+        <v>44892</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>0.0260648148148148</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="11" t="n">
+        <v>44898</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0.0140277777777778</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="11" t="n">
+        <v>44899</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>0.0125462962962963</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="11" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>0.0132407407407407</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="11" t="n">
+        <v>44906</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>0.0143981481481481</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="11" t="n">
+        <v>44907</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>0.0128819444444444</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="11" t="n">
+        <v>44912</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>0.0247569444444444</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="n">
+        <v>44913</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>0.0251041666666667</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>0.0235532407407407</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="n">
+        <v>44919</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>0.0149884259259259</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="0" t="n">
+        <f aca="false">SUM(D2:D122)</f>
+        <v>462.5</v>
       </c>
     </row>
   </sheetData>
@@ -1752,13 +2490,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G82" activeCellId="0" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.71"/>
@@ -1769,500 +2507,500 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="B2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C7" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="C16" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C17" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C23" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="C27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>3</v>
@@ -2279,7 +3017,7 @@
         <v>44417</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -2292,7 +3030,7 @@
         <v>44418</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -2301,66 +3039,66 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="9" t="n">
         <v>44466</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
+      <c r="A34" s="9" t="n">
         <v>44468</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="9" t="n">
         <v>44470</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="9" t="n">
         <v>44472</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="9" t="n">
         <v>44473</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
+      <c r="A38" s="9" t="n">
         <v>44499</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>3</v>
@@ -2373,11 +3111,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="A39" s="9" t="n">
         <v>41213</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>3</v>
@@ -2390,39 +3128,39 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
+      <c r="A40" s="9" t="n">
         <v>41213</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
-        <v>44504</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="E41" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
+      <c r="A42" s="9" t="n">
         <v>44506</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>3</v>
@@ -2435,11 +3173,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+      <c r="A43" s="9" t="n">
         <v>44507</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3</v>
@@ -2452,22 +3190,22 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
+      <c r="A44" s="9" t="n">
         <v>44509</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
+      <c r="A45" s="9" t="n">
         <v>44515</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3</v>
@@ -2480,11 +3218,11 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
+      <c r="A46" s="9" t="n">
         <v>44536</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3</v>
@@ -2497,11 +3235,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
+      <c r="A47" s="9" t="n">
         <v>44536</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>3</v>
@@ -2514,11 +3252,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
+      <c r="A48" s="9" t="n">
         <v>44538</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>3</v>
@@ -2531,11 +3269,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
+      <c r="A49" s="9" t="n">
         <v>44538</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3</v>
@@ -2548,11 +3286,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
+      <c r="A50" s="9" t="n">
         <v>44543</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>3</v>
@@ -2565,11 +3303,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
+      <c r="A51" s="9" t="n">
         <v>44543</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>3</v>
@@ -2582,11 +3320,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="n">
+      <c r="A52" s="9" t="n">
         <v>44548</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>3</v>
@@ -2599,11 +3337,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="n">
+      <c r="A53" s="9" t="n">
         <v>44548</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>3</v>
@@ -2613,6 +3351,550 @@
       </c>
       <c r="E53" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
+        <v>44611</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
+        <v>44611</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2631,13 +3913,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2660,27 +3942,27 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="5" t="n">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>70</v>
+      <c r="F2" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>44513</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -2697,11 +3979,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>44520</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -2714,11 +3996,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="9" t="n">
         <v>44523</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>7</v>
@@ -2731,11 +4013,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="9" t="n">
         <v>44527</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -2748,7 +4030,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="9" t="n">
         <v>44528</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2762,7 +4044,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="9" t="n">
         <v>44533</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -2779,11 +4061,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="9" t="n">
         <v>44538</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -2796,11 +4078,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="9" t="n">
         <v>44545</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>7</v>
@@ -2813,11 +4095,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="9" t="n">
         <v>44548</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -2830,11 +4112,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="9" t="n">
         <v>44549</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>50</v>
@@ -2844,6 +4126,292 @@
       </c>
       <c r="E12" s="17" t="n">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>44555</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" s="17" t="n">
+        <v>1.66666666666667</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>44569</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>1.22986111111111</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E19" s="17" t="n">
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E21" s="17" t="n">
+        <v>1.86666666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17" t="n">
+        <v>1.52361111111111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E23" s="18" t="n">
+        <v>0.98125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="E24" s="17" t="n">
+        <v>2.12638888888889</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <v>2.55347222222222</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>0.946527777777778</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>0.430555555555556</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E28" s="17" t="n">
+        <v>1.45138888888889</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E29" s="17" t="n">
+        <v>1.57986111111111</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +4436,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2891,23 +4459,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5" t="n">
+      <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="7" t="n">
         <v>0.0223148148148148</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
+      <c r="F2" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2932,9 +4500,9 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,39 +4510,39 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>75</v>
+      <c r="B2" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>76</v>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>77</v>
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
+      <c r="B5" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2999,9 +4567,9 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="127.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,24 +4577,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>76</v>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
